--- a/_data/ni/ni0506/individueel_eindstand_dworp_12_0506.xlsx
+++ b/_data/ni/ni0506/individueel_eindstand_dworp_12_0506.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" state="visible" r:id="rId2"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1231" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="209">
   <si>
     <t xml:space="preserve">Individuele uitslagen Nationale Interclubs</t>
   </si>
@@ -103,6 +103,9 @@
     <t xml:space="preserve">Dworp 1</t>
   </si>
   <si>
+    <t xml:space="preserve">tploeg:</t>
+  </si>
+  <si>
     <t xml:space="preserve">228 Dworp 1</t>
   </si>
   <si>
@@ -208,9 +211,6 @@
     <t xml:space="preserve">Dworp 3</t>
   </si>
   <si>
-    <t xml:space="preserve">tploeg:</t>
-  </si>
-  <si>
     <t xml:space="preserve">Dworp 4</t>
   </si>
   <si>
@@ -247,7 +247,7 @@
     <t xml:space="preserve">Maeckelbergh Geert</t>
   </si>
   <si>
-    <t xml:space="preserve">301 KOSK Oostende 5</t>
+    <t xml:space="preserve">301 K Oostendse SK 5</t>
   </si>
   <si>
     <t xml:space="preserve">verbeterd: elo's Dworp 2 in JV dateren uit de toekomst (jan 2006)</t>
@@ -295,7 +295,7 @@
     <t xml:space="preserve">Goossens Roel</t>
   </si>
   <si>
-    <t xml:space="preserve">(bye)</t>
+    <t xml:space="preserve">Bye</t>
   </si>
   <si>
     <t xml:space="preserve">R4</t>
@@ -322,7 +322,7 @@
     <t xml:space="preserve">Houriez Alain</t>
   </si>
   <si>
-    <t xml:space="preserve">401 KGSRL Gent 16</t>
+    <t xml:space="preserve">401 K Gentse SRL 16</t>
   </si>
   <si>
     <t xml:space="preserve">Saligo Pieter</t>
@@ -439,7 +439,7 @@
     <t xml:space="preserve">R7</t>
   </si>
   <si>
-    <t xml:space="preserve">244 Brussels 2</t>
+    <t xml:space="preserve">244 Brussels CC 2</t>
   </si>
   <si>
     <t xml:space="preserve">Beeckmans Felix</t>
@@ -463,7 +463,7 @@
     <t xml:space="preserve">Peeters Simonne</t>
   </si>
   <si>
-    <t xml:space="preserve">244 Brussels 5</t>
+    <t xml:space="preserve">244 Brussels CC 5</t>
   </si>
   <si>
     <t xml:space="preserve">Dembour Luc</t>
@@ -484,7 +484,7 @@
     <t xml:space="preserve">R8</t>
   </si>
   <si>
-    <t xml:space="preserve">601 CRELEL Liège 2</t>
+    <t xml:space="preserve">601 CRE Liège EL 2</t>
   </si>
   <si>
     <t xml:space="preserve">Thiry Jean-Christophe</t>
@@ -526,7 +526,7 @@
     <t xml:space="preserve">R9</t>
   </si>
   <si>
-    <t xml:space="preserve">401 KGSRL Gent 4</t>
+    <t xml:space="preserve">401 K Gentse SRL 4</t>
   </si>
   <si>
     <t xml:space="preserve">Krijgelmans Johan</t>
@@ -589,7 +589,7 @@
     <t xml:space="preserve">Di Cosmo Jonathan</t>
   </si>
   <si>
-    <t xml:space="preserve">166 TSM Mechelen 4</t>
+    <t xml:space="preserve">166 TS Mechelen 4</t>
   </si>
   <si>
     <t xml:space="preserve">Ducaert Frederik</t>
@@ -607,7 +607,7 @@
     <t xml:space="preserve">R11</t>
   </si>
   <si>
-    <t xml:space="preserve">209 Chess Club Caissa Brussel 2</t>
+    <t xml:space="preserve">209 CC Caïssa Anderlecht 2</t>
   </si>
   <si>
     <t xml:space="preserve">Campeert Julien</t>
@@ -674,7 +674,7 @@
     <numFmt numFmtId="166" formatCode="0"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -696,18 +696,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -754,6 +742,12 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="1"/>
     </font>
     <font>
@@ -1074,7 +1068,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="22">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1098,11 +1092,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1112,7 +1102,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1152,19 +1142,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1172,11 +1162,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1184,23 +1174,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="7" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="8" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1232,11 +1222,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="8" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1248,23 +1238,23 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="12" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="12" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="13" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="13" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="14" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="14" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="15" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="15" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="16" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="16" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1272,27 +1262,27 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="18" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="18" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="19" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="19" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="9" borderId="20" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="9" borderId="20" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="20" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="20" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="21" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="21" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="22" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="22" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1304,11 +1294,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1324,7 +1314,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1336,35 +1326,35 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="28" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="28" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="29" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="29" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="30" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="30" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="9" borderId="30" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="9" borderId="30" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="31" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="31" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="32" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="32" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1376,20 +1366,19 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Standaard 2" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Standaard_Blad2" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -1461,7 +1450,7 @@
   </sheetPr>
   <dimension ref="A1:M1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1663,8 +1652,8 @@
   </sheetPr>
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1678,7 +1667,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="5.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="7.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="30.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="6.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="6.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="8.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="10.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="8.53"/>
@@ -1700,18 +1689,20 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="15"/>
-      <c r="B3" s="16"/>
+      <c r="B3" s="16" t="s">
+        <v>22</v>
+      </c>
       <c r="C3" s="17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" s="18"/>
       <c r="E3" s="18"/>
       <c r="F3" s="18"/>
       <c r="G3" s="18"/>
       <c r="H3" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I3" s="17" t="s">
         <v>163</v>
@@ -1720,32 +1711,32 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F4" s="23"/>
       <c r="G4" s="23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H4" s="20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J4" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1756,7 +1747,7 @@
         <v>20621</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D5" s="26" t="n">
         <v>2299</v>
@@ -1765,7 +1756,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G5" s="27" t="n">
         <v>0</v>
@@ -1788,7 +1779,7 @@
         <v>14354</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D6" s="26" t="n">
         <v>2283</v>
@@ -1797,7 +1788,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G6" s="27" t="n">
         <v>0</v>
@@ -1820,7 +1811,7 @@
         <v>27413</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D7" s="26" t="n">
         <v>2065</v>
@@ -1829,7 +1820,7 @@
         <v>0.5</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G7" s="27" t="n">
         <v>0.5</v>
@@ -1861,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G8" s="27" t="n">
         <v>1</v>
@@ -1884,7 +1875,7 @@
         <v>48097</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D9" s="26" t="n">
         <v>1811</v>
@@ -1893,7 +1884,7 @@
         <v>0.5</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G9" s="27" t="n">
         <v>0.5</v>
@@ -1916,7 +1907,7 @@
         <v>26816</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D10" s="26" t="n">
         <v>1752</v>
@@ -1925,7 +1916,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G10" s="28" t="n">
         <v>1</v>
@@ -1952,7 +1943,7 @@
         <v>3</v>
       </c>
       <c r="F11" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G11" s="32" t="n">
         <v>3</v>
@@ -1966,21 +1957,23 @@
     </row>
     <row r="12" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="15"/>
-      <c r="B13" s="16"/>
+      <c r="B13" s="16" t="s">
+        <v>22</v>
+      </c>
       <c r="C13" s="17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D13" s="18"/>
       <c r="E13" s="18"/>
       <c r="F13" s="18"/>
       <c r="G13" s="18"/>
       <c r="H13" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I13" s="17" t="s">
         <v>170</v>
@@ -1989,30 +1982,30 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F14" s="23"/>
       <c r="G14" s="23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H14" s="20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I14" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J14" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2023,7 +2016,7 @@
         <v>31526</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D15" s="26" t="n">
         <v>1879</v>
@@ -2032,7 +2025,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G15" s="27" t="n">
         <v>1</v>
@@ -2055,7 +2048,7 @@
         <v>76317</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D16" s="26" t="n">
         <v>1754</v>
@@ -2064,7 +2057,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G16" s="27" t="n">
         <v>0</v>
@@ -2096,7 +2089,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G17" s="27" t="n">
         <v>1</v>
@@ -2119,7 +2112,7 @@
         <v>41688</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" s="26" t="n">
         <v>1611</v>
@@ -2128,7 +2121,7 @@
         <v>1</v>
       </c>
       <c r="F18" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G18" s="28" t="n">
         <v>0</v>
@@ -2155,7 +2148,7 @@
         <v>2</v>
       </c>
       <c r="F19" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G19" s="32" t="n">
         <v>2</v>
@@ -2169,13 +2162,13 @@
     </row>
     <row r="20" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="15"/>
       <c r="B21" s="16" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="C21" s="17"/>
       <c r="D21" s="18"/>
@@ -2183,39 +2176,39 @@
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
       <c r="H21" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I21" s="17"/>
       <c r="J21" s="18"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F22" s="23"/>
       <c r="G22" s="23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H22" s="20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I22" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J22" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2227,7 +2220,7 @@
       <c r="D23" s="26"/>
       <c r="E23" s="27"/>
       <c r="F23" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G23" s="27"/>
       <c r="H23" s="24"/>
@@ -2243,7 +2236,7 @@
       <c r="D24" s="26"/>
       <c r="E24" s="27"/>
       <c r="F24" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G24" s="27"/>
       <c r="H24" s="24"/>
@@ -2259,7 +2252,7 @@
       <c r="D25" s="26"/>
       <c r="E25" s="27"/>
       <c r="F25" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G25" s="27"/>
       <c r="H25" s="24"/>
@@ -2275,7 +2268,7 @@
       <c r="D26" s="26"/>
       <c r="E26" s="28"/>
       <c r="F26" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G26" s="28"/>
       <c r="H26" s="24"/>
@@ -2292,7 +2285,7 @@
       <c r="D27" s="30"/>
       <c r="E27" s="32"/>
       <c r="F27" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G27" s="32"/>
       <c r="H27" s="30"/>
@@ -2310,7 +2303,7 @@
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="15"/>
       <c r="B29" s="16" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="C29" s="17"/>
       <c r="D29" s="18"/>
@@ -2318,39 +2311,39 @@
       <c r="F29" s="18"/>
       <c r="G29" s="18"/>
       <c r="H29" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I29" s="17"/>
       <c r="J29" s="18"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E30" s="23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F30" s="23"/>
       <c r="G30" s="23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H30" s="20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I30" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J30" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2362,7 +2355,7 @@
       <c r="D31" s="26"/>
       <c r="E31" s="27"/>
       <c r="F31" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G31" s="27"/>
       <c r="H31" s="24"/>
@@ -2378,7 +2371,7 @@
       <c r="D32" s="26"/>
       <c r="E32" s="27"/>
       <c r="F32" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G32" s="27"/>
       <c r="H32" s="24"/>
@@ -2394,7 +2387,7 @@
       <c r="D33" s="26"/>
       <c r="E33" s="27"/>
       <c r="F33" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G33" s="27"/>
       <c r="H33" s="24"/>
@@ -2410,7 +2403,7 @@
       <c r="D34" s="26"/>
       <c r="E34" s="28"/>
       <c r="F34" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G34" s="28"/>
       <c r="H34" s="24"/>
@@ -2427,7 +2420,7 @@
       <c r="D35" s="30"/>
       <c r="E35" s="32"/>
       <c r="F35" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G35" s="32"/>
       <c r="H35" s="30"/>
@@ -2470,7 +2463,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="5.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="7.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="30.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="6.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="6.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="8.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="10.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="8.53"/>
@@ -2492,18 +2485,20 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="15"/>
-      <c r="B3" s="16"/>
+      <c r="B3" s="16" t="s">
+        <v>22</v>
+      </c>
       <c r="C3" s="17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" s="18"/>
       <c r="E3" s="18"/>
       <c r="F3" s="18"/>
       <c r="G3" s="18"/>
       <c r="H3" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I3" s="17" t="s">
         <v>176</v>
@@ -2512,32 +2507,32 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F4" s="23"/>
       <c r="G4" s="23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H4" s="20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J4" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2548,7 +2543,7 @@
         <v>20621</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D5" s="26" t="n">
         <v>2299</v>
@@ -2557,7 +2552,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G5" s="27" t="n">
         <v>1</v>
@@ -2580,7 +2575,7 @@
         <v>14354</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D6" s="26" t="n">
         <v>2283</v>
@@ -2589,7 +2584,7 @@
         <v>0.5</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G6" s="27" t="n">
         <v>0.5</v>
@@ -2621,7 +2616,7 @@
         <v>0.5</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G7" s="27" t="n">
         <v>0.5</v>
@@ -2644,7 +2639,7 @@
         <v>27413</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D8" s="26" t="n">
         <v>2065</v>
@@ -2653,7 +2648,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G8" s="27" t="n">
         <v>1</v>
@@ -2685,7 +2680,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G9" s="27" t="n">
         <v>1</v>
@@ -2716,7 +2711,7 @@
         <v>76317</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D10" s="26" t="n">
         <v>1754</v>
@@ -2725,7 +2720,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G10" s="28" t="n">
         <v>1</v>
@@ -2752,7 +2747,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G11" s="32" t="n">
         <v>5</v>
@@ -2766,21 +2761,23 @@
     </row>
     <row r="12" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="15"/>
-      <c r="B13" s="16"/>
+      <c r="B13" s="16" t="s">
+        <v>22</v>
+      </c>
       <c r="C13" s="17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D13" s="18"/>
       <c r="E13" s="18"/>
       <c r="F13" s="18"/>
       <c r="G13" s="18"/>
       <c r="H13" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I13" s="17" t="s">
         <v>184</v>
@@ -2789,30 +2786,30 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F14" s="23"/>
       <c r="G14" s="23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H14" s="20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I14" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J14" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2823,7 +2820,7 @@
         <v>31526</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D15" s="26" t="n">
         <v>1879</v>
@@ -2832,7 +2829,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G15" s="27" t="n">
         <v>0</v>
@@ -2864,7 +2861,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G16" s="27" t="n">
         <v>0</v>
@@ -2887,7 +2884,7 @@
         <v>41688</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D17" s="26" t="n">
         <v>1611</v>
@@ -2896,7 +2893,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G17" s="27" t="n">
         <v>1</v>
@@ -2928,7 +2925,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G18" s="28" t="n">
         <v>1</v>
@@ -2955,7 +2952,7 @@
         <v>2</v>
       </c>
       <c r="F19" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G19" s="32" t="n">
         <v>2</v>
@@ -2969,13 +2966,13 @@
     </row>
     <row r="20" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="15"/>
       <c r="B21" s="16" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="C21" s="17"/>
       <c r="D21" s="18"/>
@@ -2983,39 +2980,39 @@
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
       <c r="H21" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I21" s="17"/>
       <c r="J21" s="18"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F22" s="23"/>
       <c r="G22" s="23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H22" s="20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I22" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J22" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3027,7 +3024,7 @@
       <c r="D23" s="26"/>
       <c r="E23" s="27"/>
       <c r="F23" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G23" s="27"/>
       <c r="H23" s="24"/>
@@ -3043,7 +3040,7 @@
       <c r="D24" s="26"/>
       <c r="E24" s="27"/>
       <c r="F24" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G24" s="27"/>
       <c r="H24" s="24"/>
@@ -3059,7 +3056,7 @@
       <c r="D25" s="26"/>
       <c r="E25" s="27"/>
       <c r="F25" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G25" s="27"/>
       <c r="H25" s="24"/>
@@ -3075,7 +3072,7 @@
       <c r="D26" s="26"/>
       <c r="E26" s="28"/>
       <c r="F26" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G26" s="28"/>
       <c r="H26" s="24"/>
@@ -3092,7 +3089,7 @@
       <c r="D27" s="30"/>
       <c r="E27" s="32"/>
       <c r="F27" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G27" s="32"/>
       <c r="H27" s="30"/>
@@ -3110,7 +3107,7 @@
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="15"/>
       <c r="B29" s="16" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="C29" s="17"/>
       <c r="D29" s="18"/>
@@ -3118,39 +3115,39 @@
       <c r="F29" s="18"/>
       <c r="G29" s="18"/>
       <c r="H29" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I29" s="17"/>
       <c r="J29" s="18"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E30" s="23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F30" s="23"/>
       <c r="G30" s="23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H30" s="20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I30" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J30" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3162,7 +3159,7 @@
       <c r="D31" s="26"/>
       <c r="E31" s="27"/>
       <c r="F31" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G31" s="27"/>
       <c r="H31" s="24"/>
@@ -3178,7 +3175,7 @@
       <c r="D32" s="26"/>
       <c r="E32" s="27"/>
       <c r="F32" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G32" s="27"/>
       <c r="H32" s="24"/>
@@ -3194,7 +3191,7 @@
       <c r="D33" s="26"/>
       <c r="E33" s="27"/>
       <c r="F33" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G33" s="27"/>
       <c r="H33" s="24"/>
@@ -3210,7 +3207,7 @@
       <c r="D34" s="26"/>
       <c r="E34" s="28"/>
       <c r="F34" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G34" s="28"/>
       <c r="H34" s="24"/>
@@ -3227,7 +3224,7 @@
       <c r="D35" s="30"/>
       <c r="E35" s="32"/>
       <c r="F35" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G35" s="32"/>
       <c r="H35" s="30"/>
@@ -3255,7 +3252,7 @@
   </sheetPr>
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -3270,7 +3267,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="5.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="7.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="30.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="6.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="6.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="8.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="10.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="8.53"/>
@@ -3292,10 +3289,10 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="15"/>
       <c r="B3" s="16" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>190</v>
@@ -3304,40 +3301,42 @@
       <c r="E3" s="18"/>
       <c r="F3" s="18"/>
       <c r="G3" s="18"/>
-      <c r="H3" s="16"/>
+      <c r="H3" s="16" t="s">
+        <v>24</v>
+      </c>
       <c r="I3" s="17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J3" s="18"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F4" s="23"/>
       <c r="G4" s="23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H4" s="20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J4" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3357,7 +3356,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G5" s="27" t="n">
         <v>1</v>
@@ -3366,7 +3365,7 @@
         <v>20621</v>
       </c>
       <c r="I5" s="25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J5" s="26" t="n">
         <v>2299</v>
@@ -3389,7 +3388,7 @@
         <v>0.5</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G6" s="27" t="n">
         <v>0.5</v>
@@ -3398,7 +3397,7 @@
         <v>14354</v>
       </c>
       <c r="I6" s="25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J6" s="26" t="n">
         <v>2283</v>
@@ -3421,7 +3420,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G7" s="27" t="n">
         <v>1</v>
@@ -3430,7 +3429,7 @@
         <v>27413</v>
       </c>
       <c r="I7" s="25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J7" s="26" t="n">
         <v>2065</v>
@@ -3453,7 +3452,7 @@
         <v>0.5</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G8" s="27" t="n">
         <v>0.5</v>
@@ -3485,7 +3484,7 @@
         <v>0.5</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G9" s="27" t="n">
         <v>0.5</v>
@@ -3494,7 +3493,7 @@
         <v>48097</v>
       </c>
       <c r="I9" s="25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J9" s="26" t="n">
         <v>1811</v>
@@ -3517,7 +3516,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G10" s="28" t="n">
         <v>0</v>
@@ -3526,7 +3525,7 @@
         <v>76317</v>
       </c>
       <c r="I10" s="25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J10" s="26" t="n">
         <v>1754</v>
@@ -3544,7 +3543,7 @@
         <v>2.5</v>
       </c>
       <c r="F11" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G11" s="32" t="n">
         <v>3.5</v>
@@ -3558,13 +3557,13 @@
     </row>
     <row r="12" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="15"/>
       <c r="B13" s="16" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="C13" s="17" t="s">
         <v>197</v>
@@ -3573,37 +3572,39 @@
       <c r="E13" s="18"/>
       <c r="F13" s="18"/>
       <c r="G13" s="18"/>
-      <c r="H13" s="16"/>
+      <c r="H13" s="16" t="s">
+        <v>24</v>
+      </c>
       <c r="I13" s="17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J13" s="18"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F14" s="23"/>
       <c r="G14" s="23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H14" s="20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I14" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J14" s="22"/>
     </row>
@@ -3624,7 +3625,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G15" s="27" t="n">
         <v>0</v>
@@ -3633,7 +3634,7 @@
         <v>31526</v>
       </c>
       <c r="I15" s="25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J15" s="26" t="n">
         <v>1879</v>
@@ -3656,7 +3657,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G16" s="27" t="n">
         <v>1</v>
@@ -3665,7 +3666,7 @@
         <v>353</v>
       </c>
       <c r="I16" s="25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J16" s="26" t="n">
         <v>1885</v>
@@ -3688,7 +3689,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G17" s="27" t="n">
         <v>1</v>
@@ -3697,7 +3698,7 @@
         <v>26816</v>
       </c>
       <c r="I17" s="25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J17" s="26" t="n">
         <v>1752</v>
@@ -3714,13 +3715,13 @@
         <v>201</v>
       </c>
       <c r="D18" s="26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E18" s="28" t="n">
         <v>0</v>
       </c>
       <c r="F18" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G18" s="28" t="n">
         <v>1</v>
@@ -3729,7 +3730,7 @@
         <v>41688</v>
       </c>
       <c r="I18" s="25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J18" s="26" t="n">
         <v>1611</v>
@@ -3747,7 +3748,7 @@
         <v>1</v>
       </c>
       <c r="F19" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G19" s="32" t="n">
         <v>3</v>
@@ -3761,13 +3762,13 @@
     </row>
     <row r="20" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="15"/>
       <c r="B21" s="16" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="C21" s="17"/>
       <c r="D21" s="18"/>
@@ -3775,39 +3776,39 @@
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
       <c r="H21" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I21" s="17"/>
       <c r="J21" s="18"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F22" s="23"/>
       <c r="G22" s="23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H22" s="20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I22" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J22" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3819,7 +3820,7 @@
       <c r="D23" s="26"/>
       <c r="E23" s="27"/>
       <c r="F23" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G23" s="27"/>
       <c r="H23" s="24"/>
@@ -3835,7 +3836,7 @@
       <c r="D24" s="26"/>
       <c r="E24" s="27"/>
       <c r="F24" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G24" s="27"/>
       <c r="H24" s="24"/>
@@ -3851,7 +3852,7 @@
       <c r="D25" s="26"/>
       <c r="E25" s="27"/>
       <c r="F25" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G25" s="27"/>
       <c r="H25" s="24"/>
@@ -3867,7 +3868,7 @@
       <c r="D26" s="26"/>
       <c r="E26" s="28"/>
       <c r="F26" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G26" s="28"/>
       <c r="H26" s="24"/>
@@ -3884,7 +3885,7 @@
       <c r="D27" s="30"/>
       <c r="E27" s="32"/>
       <c r="F27" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G27" s="32"/>
       <c r="H27" s="30"/>
@@ -3902,7 +3903,7 @@
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="15"/>
       <c r="B29" s="16" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="C29" s="17"/>
       <c r="D29" s="18"/>
@@ -3910,39 +3911,39 @@
       <c r="F29" s="18"/>
       <c r="G29" s="18"/>
       <c r="H29" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I29" s="17"/>
       <c r="J29" s="18"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E30" s="23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F30" s="23"/>
       <c r="G30" s="23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H30" s="20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I30" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J30" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3954,7 +3955,7 @@
       <c r="D31" s="26"/>
       <c r="E31" s="27"/>
       <c r="F31" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G31" s="27"/>
       <c r="H31" s="24"/>
@@ -3970,7 +3971,7 @@
       <c r="D32" s="26"/>
       <c r="E32" s="27"/>
       <c r="F32" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G32" s="27"/>
       <c r="H32" s="24"/>
@@ -3986,7 +3987,7 @@
       <c r="D33" s="26"/>
       <c r="E33" s="27"/>
       <c r="F33" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G33" s="27"/>
       <c r="H33" s="24"/>
@@ -4002,7 +4003,7 @@
       <c r="D34" s="26"/>
       <c r="E34" s="28"/>
       <c r="F34" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G34" s="28"/>
       <c r="H34" s="24"/>
@@ -4019,7 +4020,7 @@
       <c r="D35" s="30"/>
       <c r="E35" s="32"/>
       <c r="F35" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G35" s="32"/>
       <c r="H35" s="30"/>
@@ -4900,7 +4901,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" s="44" t="n">
         <v>1</v>
@@ -5051,7 +5052,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="42" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" s="44" t="n">
         <v>1</v>
@@ -5954,7 +5955,7 @@
     </row>
     <row r="16" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6474,7 +6475,7 @@
         <v>4</v>
       </c>
       <c r="B21" s="42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C21" s="44" t="n">
         <v>0.5</v>
@@ -6623,7 +6624,7 @@
         <v>5</v>
       </c>
       <c r="B22" s="42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C22" s="44" t="n">
         <v>1</v>
@@ -7661,13 +7662,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="57" t="n">
-        <v>12</v>
-      </c>
-      <c r="B29" s="58" t="s">
-        <v>86</v>
-      </c>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="57"/>
+      <c r="B29" s="58"/>
       <c r="C29" s="59"/>
       <c r="D29" s="59"/>
       <c r="E29" s="59"/>
@@ -7682,18 +7679,9 @@
       <c r="N29" s="60" t="s">
         <v>208</v>
       </c>
-      <c r="O29" s="61" t="n">
-        <f aca="false">SUM(C29:N29)</f>
-        <v>0</v>
-      </c>
-      <c r="P29" s="62" t="n">
-        <f aca="false">SUM(S29:AD29)*2</f>
-        <v>0</v>
-      </c>
-      <c r="Q29" s="62" t="n">
-        <f aca="false">COUNT(C29:N29)</f>
-        <v>0</v>
-      </c>
+      <c r="O29" s="61"/>
+      <c r="P29" s="62"/>
+      <c r="Q29" s="62"/>
       <c r="R29" s="47"/>
       <c r="S29" s="63" t="str">
         <f aca="false">IF(C29="","",IF(C29&gt;$N18,1,IF(C29=$N18,0.5,0)))</f>
@@ -7792,7 +7780,7 @@
     </row>
     <row r="30" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="67" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11022,7 +11010,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11036,7 +11024,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="5.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="7.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="30.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="6.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="6.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="8.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="10.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="8.53"/>
@@ -11058,52 +11046,54 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="15"/>
-      <c r="B3" s="16"/>
+      <c r="B3" s="16" t="s">
+        <v>22</v>
+      </c>
       <c r="C3" s="17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" s="18"/>
       <c r="E3" s="18"/>
       <c r="F3" s="18"/>
       <c r="G3" s="18"/>
       <c r="H3" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J3" s="18"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F4" s="23"/>
       <c r="G4" s="23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H4" s="20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J4" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11114,7 +11104,7 @@
         <v>20621</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D5" s="26" t="n">
         <v>2299</v>
@@ -11123,7 +11113,7 @@
         <v>0.5</v>
       </c>
       <c r="F5" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G5" s="27" t="n">
         <v>0.5</v>
@@ -11132,7 +11122,7 @@
         <v>41831</v>
       </c>
       <c r="I5" s="25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J5" s="26" t="n">
         <v>2028</v>
@@ -11146,7 +11136,7 @@
         <v>14354</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D6" s="26" t="n">
         <v>2283</v>
@@ -11155,7 +11145,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G6" s="27" t="n">
         <v>0</v>
@@ -11164,7 +11154,7 @@
         <v>92452</v>
       </c>
       <c r="I6" s="25" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J6" s="26" t="n">
         <v>1941</v>
@@ -11178,7 +11168,7 @@
         <v>27413</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D7" s="26" t="n">
         <v>2065</v>
@@ -11187,7 +11177,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G7" s="27" t="n">
         <v>1</v>
@@ -11196,7 +11186,7 @@
         <v>8575</v>
       </c>
       <c r="I7" s="25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J7" s="26" t="n">
         <v>1938</v>
@@ -11210,7 +11200,7 @@
         <v>353</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D8" s="26" t="n">
         <v>1885</v>
@@ -11219,7 +11209,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G8" s="27" t="n">
         <v>1</v>
@@ -11228,7 +11218,7 @@
         <v>97250</v>
       </c>
       <c r="I8" s="25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J8" s="26" t="n">
         <v>1877</v>
@@ -11242,7 +11232,7 @@
         <v>48097</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D9" s="26" t="n">
         <v>1811</v>
@@ -11251,7 +11241,7 @@
         <v>0.5</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G9" s="27" t="n">
         <v>0.5</v>
@@ -11260,7 +11250,7 @@
         <v>65722</v>
       </c>
       <c r="I9" s="25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J9" s="26" t="n">
         <v>1893</v>
@@ -11274,7 +11264,7 @@
         <v>76317</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D10" s="26" t="n">
         <v>1754</v>
@@ -11283,7 +11273,7 @@
         <v>0.5</v>
       </c>
       <c r="F10" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G10" s="28" t="n">
         <v>0.5</v>
@@ -11292,7 +11282,7 @@
         <v>55760</v>
       </c>
       <c r="I10" s="25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J10" s="26" t="n">
         <v>1750</v>
@@ -11310,7 +11300,7 @@
         <v>2.5</v>
       </c>
       <c r="F11" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G11" s="32" t="n">
         <v>3.5</v>
@@ -11324,53 +11314,55 @@
     </row>
     <row r="12" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="15"/>
-      <c r="B13" s="16"/>
+      <c r="B13" s="16" t="s">
+        <v>22</v>
+      </c>
       <c r="C13" s="17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D13" s="18"/>
       <c r="E13" s="18"/>
       <c r="F13" s="18"/>
       <c r="G13" s="18"/>
       <c r="H13" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I13" s="17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J13" s="18"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F14" s="23"/>
       <c r="G14" s="23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H14" s="20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I14" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J14" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11381,7 +11373,7 @@
         <v>31526</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D15" s="26" t="n">
         <v>1879</v>
@@ -11390,7 +11382,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G15" s="27" t="n">
         <v>1</v>
@@ -11399,7 +11391,7 @@
         <v>54585</v>
       </c>
       <c r="I15" s="25" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J15" s="26" t="n">
         <v>1363</v>
@@ -11413,7 +11405,7 @@
         <v>655</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D16" s="26" t="n">
         <v>1824</v>
@@ -11422,7 +11414,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G16" s="27" t="n">
         <v>0</v>
@@ -11431,7 +11423,7 @@
         <v>54356</v>
       </c>
       <c r="I16" s="25" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J16" s="26" t="n">
         <v>1269</v>
@@ -11445,7 +11437,7 @@
         <v>26816</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" s="26" t="n">
         <v>1752</v>
@@ -11454,7 +11446,7 @@
         <v>1</v>
       </c>
       <c r="F17" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G17" s="27" t="n">
         <v>0</v>
@@ -11463,7 +11455,7 @@
         <v>34045</v>
       </c>
       <c r="I17" s="25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J17" s="26" t="n">
         <v>1229</v>
@@ -11477,7 +11469,7 @@
         <v>41688</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" s="26" t="n">
         <v>1611</v>
@@ -11486,7 +11478,7 @@
         <v>0.5</v>
       </c>
       <c r="F18" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G18" s="28" t="n">
         <v>0.5</v>
@@ -11495,10 +11487,10 @@
         <v>57690</v>
       </c>
       <c r="I18" s="25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J18" s="26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11513,7 +11505,7 @@
         <v>2.5</v>
       </c>
       <c r="F19" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G19" s="32" t="n">
         <v>1.5</v>
@@ -11527,13 +11519,13 @@
     </row>
     <row r="20" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="15"/>
       <c r="B21" s="16" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="C21" s="17"/>
       <c r="D21" s="18"/>
@@ -11541,39 +11533,39 @@
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
       <c r="H21" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I21" s="17"/>
       <c r="J21" s="18"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F22" s="23"/>
       <c r="G22" s="23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H22" s="20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I22" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J22" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11585,7 +11577,7 @@
       <c r="D23" s="26"/>
       <c r="E23" s="27"/>
       <c r="F23" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G23" s="27"/>
       <c r="H23" s="24"/>
@@ -11601,7 +11593,7 @@
       <c r="D24" s="26"/>
       <c r="E24" s="27"/>
       <c r="F24" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G24" s="27"/>
       <c r="H24" s="24"/>
@@ -11617,7 +11609,7 @@
       <c r="D25" s="26"/>
       <c r="E25" s="27"/>
       <c r="F25" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G25" s="27"/>
       <c r="H25" s="24"/>
@@ -11633,7 +11625,7 @@
       <c r="D26" s="26"/>
       <c r="E26" s="28"/>
       <c r="F26" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G26" s="28"/>
       <c r="H26" s="24"/>
@@ -11650,7 +11642,7 @@
       <c r="D27" s="30"/>
       <c r="E27" s="32"/>
       <c r="F27" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G27" s="32"/>
       <c r="H27" s="30"/>
@@ -11668,7 +11660,7 @@
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="15"/>
       <c r="B29" s="16" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="C29" s="17"/>
       <c r="D29" s="18"/>
@@ -11676,39 +11668,39 @@
       <c r="F29" s="18"/>
       <c r="G29" s="18"/>
       <c r="H29" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I29" s="17"/>
       <c r="J29" s="18"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E30" s="23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F30" s="23"/>
       <c r="G30" s="23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H30" s="20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I30" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J30" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11720,7 +11712,7 @@
       <c r="D31" s="26"/>
       <c r="E31" s="27"/>
       <c r="F31" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G31" s="27"/>
       <c r="H31" s="24"/>
@@ -11736,7 +11728,7 @@
       <c r="D32" s="26"/>
       <c r="E32" s="27"/>
       <c r="F32" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G32" s="27"/>
       <c r="H32" s="24"/>
@@ -11752,7 +11744,7 @@
       <c r="D33" s="26"/>
       <c r="E33" s="27"/>
       <c r="F33" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G33" s="27"/>
       <c r="H33" s="24"/>
@@ -11768,7 +11760,7 @@
       <c r="D34" s="26"/>
       <c r="E34" s="28"/>
       <c r="F34" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G34" s="28"/>
       <c r="H34" s="24"/>
@@ -11785,7 +11777,7 @@
       <c r="D35" s="30"/>
       <c r="E35" s="32"/>
       <c r="F35" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G35" s="32"/>
       <c r="H35" s="30"/>
@@ -11828,7 +11820,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="5.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="7.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="30.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="6.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="6.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="8.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="10.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="13" style="0" width="8.53"/>
@@ -11852,10 +11844,10 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="15"/>
       <c r="B3" s="16" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>60</v>
@@ -11864,40 +11856,42 @@
       <c r="E3" s="18"/>
       <c r="F3" s="18"/>
       <c r="G3" s="18"/>
-      <c r="H3" s="16"/>
+      <c r="H3" s="16" t="s">
+        <v>24</v>
+      </c>
       <c r="I3" s="17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J3" s="18"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F4" s="23"/>
       <c r="G4" s="23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H4" s="20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J4" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11917,7 +11911,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G5" s="27" t="n">
         <v>1</v>
@@ -11926,7 +11920,7 @@
         <v>20621</v>
       </c>
       <c r="I5" s="25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J5" s="26" t="n">
         <v>2299</v>
@@ -11953,7 +11947,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G6" s="27" t="n">
         <v>1</v>
@@ -11962,7 +11956,7 @@
         <v>14354</v>
       </c>
       <c r="I6" s="25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J6" s="26" t="n">
         <v>2283</v>
@@ -11985,7 +11979,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G7" s="27" t="n">
         <v>0</v>
@@ -12017,7 +12011,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G8" s="27" t="n">
         <v>1</v>
@@ -12026,7 +12020,7 @@
         <v>27413</v>
       </c>
       <c r="I8" s="25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J8" s="26" t="n">
         <v>2065</v>
@@ -12049,7 +12043,7 @@
         <v>0.5</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G9" s="27" t="n">
         <v>0.5</v>
@@ -12058,7 +12052,7 @@
         <v>353</v>
       </c>
       <c r="I9" s="25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J9" s="26" t="n">
         <v>1885</v>
@@ -12081,7 +12075,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G10" s="27" t="n">
         <v>1</v>
@@ -12108,7 +12102,7 @@
         <v>1.5</v>
       </c>
       <c r="F11" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G11" s="32" t="n">
         <v>4.5</v>
@@ -12122,13 +12116,13 @@
     </row>
     <row r="12" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="15"/>
       <c r="B13" s="16" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="C13" s="17" t="s">
         <v>70</v>
@@ -12137,9 +12131,11 @@
       <c r="E13" s="18"/>
       <c r="F13" s="18"/>
       <c r="G13" s="18"/>
-      <c r="H13" s="16"/>
+      <c r="H13" s="16" t="s">
+        <v>24</v>
+      </c>
       <c r="I13" s="17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J13" s="18"/>
       <c r="L13" s="9" t="s">
@@ -12153,29 +12149,29 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F14" s="23"/>
       <c r="G14" s="23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H14" s="20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I14" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J14" s="22"/>
       <c r="L14" s="9" t="s">
@@ -12201,7 +12197,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G15" s="27" t="n">
         <v>0</v>
@@ -12210,7 +12206,7 @@
         <v>31526</v>
       </c>
       <c r="I15" s="25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J15" s="26" t="n">
         <v>1879</v>
@@ -12233,7 +12229,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G16" s="27" t="n">
         <v>0</v>
@@ -12242,7 +12238,7 @@
         <v>76317</v>
       </c>
       <c r="I16" s="25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J16" s="26" t="n">
         <v>1754</v>
@@ -12265,7 +12261,7 @@
         <v>0.5</v>
       </c>
       <c r="F17" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G17" s="27" t="n">
         <v>0.5</v>
@@ -12274,7 +12270,7 @@
         <v>26816</v>
       </c>
       <c r="I17" s="25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J17" s="26" t="n">
         <v>1752</v>
@@ -12297,7 +12293,7 @@
         <v>1</v>
       </c>
       <c r="F18" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G18" s="28" t="n">
         <v>0</v>
@@ -12306,7 +12302,7 @@
         <v>41688</v>
       </c>
       <c r="I18" s="25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J18" s="26" t="n">
         <v>1611</v>
@@ -12324,7 +12320,7 @@
         <v>3.5</v>
       </c>
       <c r="F19" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G19" s="32" t="n">
         <v>0.5</v>
@@ -12338,13 +12334,13 @@
     </row>
     <row r="20" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="15"/>
       <c r="B21" s="16" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="C21" s="17"/>
       <c r="D21" s="18"/>
@@ -12352,39 +12348,39 @@
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
       <c r="H21" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I21" s="17"/>
       <c r="J21" s="18"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F22" s="23"/>
       <c r="G22" s="23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H22" s="20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I22" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J22" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12396,7 +12392,7 @@
       <c r="D23" s="26"/>
       <c r="E23" s="27"/>
       <c r="F23" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G23" s="27"/>
       <c r="H23" s="24"/>
@@ -12412,7 +12408,7 @@
       <c r="D24" s="26"/>
       <c r="E24" s="27"/>
       <c r="F24" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G24" s="27"/>
       <c r="H24" s="24"/>
@@ -12428,7 +12424,7 @@
       <c r="D25" s="26"/>
       <c r="E25" s="27"/>
       <c r="F25" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G25" s="27"/>
       <c r="H25" s="24"/>
@@ -12444,7 +12440,7 @@
       <c r="D26" s="26"/>
       <c r="E26" s="28"/>
       <c r="F26" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G26" s="28"/>
       <c r="H26" s="24"/>
@@ -12461,7 +12457,7 @@
       <c r="D27" s="30"/>
       <c r="E27" s="32"/>
       <c r="F27" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G27" s="32"/>
       <c r="H27" s="30"/>
@@ -12479,7 +12475,7 @@
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="15"/>
       <c r="B29" s="16" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="C29" s="17"/>
       <c r="D29" s="18"/>
@@ -12487,39 +12483,39 @@
       <c r="F29" s="18"/>
       <c r="G29" s="18"/>
       <c r="H29" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I29" s="17"/>
       <c r="J29" s="18"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E30" s="23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F30" s="23"/>
       <c r="G30" s="23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H30" s="20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I30" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J30" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12531,7 +12527,7 @@
       <c r="D31" s="26"/>
       <c r="E31" s="27"/>
       <c r="F31" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G31" s="27"/>
       <c r="H31" s="24"/>
@@ -12547,7 +12543,7 @@
       <c r="D32" s="26"/>
       <c r="E32" s="27"/>
       <c r="F32" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G32" s="27"/>
       <c r="H32" s="24"/>
@@ -12563,7 +12559,7 @@
       <c r="D33" s="26"/>
       <c r="E33" s="27"/>
       <c r="F33" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G33" s="27"/>
       <c r="H33" s="24"/>
@@ -12579,7 +12575,7 @@
       <c r="D34" s="26"/>
       <c r="E34" s="28"/>
       <c r="F34" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G34" s="28"/>
       <c r="H34" s="24"/>
@@ -12596,7 +12592,7 @@
       <c r="D35" s="30"/>
       <c r="E35" s="32"/>
       <c r="F35" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G35" s="32"/>
       <c r="H35" s="30"/>
@@ -12639,7 +12635,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="5.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="7.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="30.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="6.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="6.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="8.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="10.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="8.53"/>
@@ -12661,18 +12657,20 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="15"/>
-      <c r="B3" s="16"/>
+      <c r="B3" s="16" t="s">
+        <v>22</v>
+      </c>
       <c r="C3" s="17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" s="18"/>
       <c r="E3" s="18"/>
       <c r="F3" s="18"/>
       <c r="G3" s="18"/>
       <c r="H3" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I3" s="17" t="s">
         <v>78</v>
@@ -12681,32 +12679,32 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F4" s="23"/>
       <c r="G4" s="23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H4" s="20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J4" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12717,7 +12715,7 @@
         <v>20621</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D5" s="26" t="n">
         <v>2299</v>
@@ -12747,7 +12745,7 @@
         <v>14354</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D6" s="26" t="n">
         <v>2283</v>
@@ -12807,7 +12805,7 @@
         <v>27413</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D8" s="26" t="n">
         <v>2065</v>
@@ -12837,7 +12835,7 @@
         <v>48097</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D9" s="26" t="n">
         <v>1811</v>
@@ -12846,7 +12844,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G9" s="27" t="n">
         <v>1</v>
@@ -12869,7 +12867,7 @@
         <v>76317</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D10" s="26" t="n">
         <v>1754</v>
@@ -12878,7 +12876,7 @@
         <v>0.5</v>
       </c>
       <c r="F10" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G10" s="28" t="n">
         <v>0.5</v>
@@ -12905,7 +12903,7 @@
         <v>3.5</v>
       </c>
       <c r="F11" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G11" s="32" t="n">
         <v>2.5</v>
@@ -12919,23 +12917,23 @@
     </row>
     <row r="12" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="15"/>
       <c r="B13" s="16" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D13" s="18"/>
       <c r="E13" s="18"/>
       <c r="F13" s="18"/>
       <c r="G13" s="18"/>
       <c r="H13" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I13" s="17" t="s">
         <v>86</v>
@@ -12944,32 +12942,32 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F14" s="23"/>
       <c r="G14" s="23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H14" s="20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I14" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J14" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12981,7 +12979,7 @@
       <c r="D15" s="26"/>
       <c r="E15" s="27"/>
       <c r="F15" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G15" s="27"/>
       <c r="H15" s="24"/>
@@ -12997,7 +12995,7 @@
       <c r="D16" s="26"/>
       <c r="E16" s="27"/>
       <c r="F16" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G16" s="27"/>
       <c r="H16" s="24"/>
@@ -13013,7 +13011,7 @@
       <c r="D17" s="26"/>
       <c r="E17" s="27"/>
       <c r="F17" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G17" s="27"/>
       <c r="H17" s="24"/>
@@ -13029,7 +13027,7 @@
       <c r="D18" s="26"/>
       <c r="E18" s="28"/>
       <c r="F18" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G18" s="28"/>
       <c r="H18" s="24"/>
@@ -13046,7 +13044,7 @@
       <c r="D19" s="30"/>
       <c r="E19" s="32"/>
       <c r="F19" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G19" s="32"/>
       <c r="H19" s="30"/>
@@ -13058,13 +13056,13 @@
     </row>
     <row r="20" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="15"/>
       <c r="B21" s="16" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="C21" s="17"/>
       <c r="D21" s="18"/>
@@ -13072,39 +13070,39 @@
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
       <c r="H21" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I21" s="17"/>
       <c r="J21" s="18"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F22" s="23"/>
       <c r="G22" s="23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H22" s="20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I22" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J22" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13116,7 +13114,7 @@
       <c r="D23" s="26"/>
       <c r="E23" s="27"/>
       <c r="F23" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G23" s="27"/>
       <c r="H23" s="24"/>
@@ -13132,7 +13130,7 @@
       <c r="D24" s="26"/>
       <c r="E24" s="27"/>
       <c r="F24" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G24" s="27"/>
       <c r="H24" s="24"/>
@@ -13148,7 +13146,7 @@
       <c r="D25" s="26"/>
       <c r="E25" s="27"/>
       <c r="F25" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G25" s="27"/>
       <c r="H25" s="24"/>
@@ -13164,7 +13162,7 @@
       <c r="D26" s="26"/>
       <c r="E26" s="28"/>
       <c r="F26" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G26" s="28"/>
       <c r="H26" s="24"/>
@@ -13181,7 +13179,7 @@
       <c r="D27" s="30"/>
       <c r="E27" s="32"/>
       <c r="F27" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G27" s="32"/>
       <c r="H27" s="30"/>
@@ -13199,7 +13197,7 @@
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="15"/>
       <c r="B29" s="16" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="C29" s="17"/>
       <c r="D29" s="18"/>
@@ -13207,39 +13205,39 @@
       <c r="F29" s="18"/>
       <c r="G29" s="18"/>
       <c r="H29" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I29" s="17"/>
       <c r="J29" s="18"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E30" s="23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F30" s="23"/>
       <c r="G30" s="23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H30" s="20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I30" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J30" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13251,7 +13249,7 @@
       <c r="D31" s="26"/>
       <c r="E31" s="27"/>
       <c r="F31" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G31" s="27"/>
       <c r="H31" s="24"/>
@@ -13267,7 +13265,7 @@
       <c r="D32" s="26"/>
       <c r="E32" s="27"/>
       <c r="F32" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G32" s="27"/>
       <c r="H32" s="24"/>
@@ -13283,7 +13281,7 @@
       <c r="D33" s="26"/>
       <c r="E33" s="27"/>
       <c r="F33" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G33" s="27"/>
       <c r="H33" s="24"/>
@@ -13299,7 +13297,7 @@
       <c r="D34" s="26"/>
       <c r="E34" s="28"/>
       <c r="F34" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G34" s="28"/>
       <c r="H34" s="24"/>
@@ -13316,7 +13314,7 @@
       <c r="D35" s="30"/>
       <c r="E35" s="32"/>
       <c r="F35" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G35" s="32"/>
       <c r="H35" s="30"/>
@@ -13359,7 +13357,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="5.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="7.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="30.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="6.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="6.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="8.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="10.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="8.53"/>
@@ -13381,10 +13379,10 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="15"/>
       <c r="B3" s="16" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>88</v>
@@ -13393,40 +13391,42 @@
       <c r="E3" s="18"/>
       <c r="F3" s="18"/>
       <c r="G3" s="18"/>
-      <c r="H3" s="16"/>
+      <c r="H3" s="16" t="s">
+        <v>24</v>
+      </c>
       <c r="I3" s="17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J3" s="18"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F4" s="23"/>
       <c r="G4" s="23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H4" s="20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J4" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13453,7 +13453,7 @@
         <v>20621</v>
       </c>
       <c r="I5" s="25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J5" s="26" t="n">
         <v>2299</v>
@@ -13483,7 +13483,7 @@
         <v>14354</v>
       </c>
       <c r="I6" s="25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J6" s="26" t="n">
         <v>2283</v>
@@ -13543,7 +13543,7 @@
         <v>27413</v>
       </c>
       <c r="I8" s="25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J8" s="26" t="n">
         <v>2065</v>
@@ -13566,7 +13566,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G9" s="27" t="n">
         <v>0</v>
@@ -13575,7 +13575,7 @@
         <v>353</v>
       </c>
       <c r="I9" s="25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J9" s="26" t="n">
         <v>1885</v>
@@ -13598,7 +13598,7 @@
         <v>0.5</v>
       </c>
       <c r="F10" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G10" s="28" t="n">
         <v>0.5</v>
@@ -13607,7 +13607,7 @@
         <v>76317</v>
       </c>
       <c r="I10" s="25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J10" s="26" t="n">
         <v>1754</v>
@@ -13625,7 +13625,7 @@
         <v>3</v>
       </c>
       <c r="F11" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G11" s="32" t="n">
         <v>3</v>
@@ -13639,13 +13639,13 @@
     </row>
     <row r="12" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="15"/>
       <c r="B13" s="16" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="C13" s="17" t="s">
         <v>95</v>
@@ -13654,37 +13654,39 @@
       <c r="E13" s="18"/>
       <c r="F13" s="18"/>
       <c r="G13" s="18"/>
-      <c r="H13" s="16"/>
+      <c r="H13" s="16" t="s">
+        <v>24</v>
+      </c>
       <c r="I13" s="17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J13" s="18"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F14" s="23"/>
       <c r="G14" s="23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H14" s="20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I14" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J14" s="22"/>
     </row>
@@ -13705,7 +13707,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G15" s="27" t="n">
         <v>0</v>
@@ -13714,7 +13716,7 @@
         <v>31526</v>
       </c>
       <c r="I15" s="25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J15" s="26" t="n">
         <v>1879</v>
@@ -13737,7 +13739,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G16" s="27" t="n">
         <v>0</v>
@@ -13769,7 +13771,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G17" s="27" t="n">
         <v>1</v>
@@ -13778,7 +13780,7 @@
         <v>26816</v>
       </c>
       <c r="I17" s="25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J17" s="26" t="n">
         <v>1752</v>
@@ -13801,7 +13803,7 @@
         <v>0.5</v>
       </c>
       <c r="F18" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G18" s="28" t="n">
         <v>0.5</v>
@@ -13810,7 +13812,7 @@
         <v>41688</v>
       </c>
       <c r="I18" s="25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J18" s="26" t="n">
         <v>1611</v>
@@ -13828,7 +13830,7 @@
         <v>2.5</v>
       </c>
       <c r="F19" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G19" s="32" t="n">
         <v>1.5</v>
@@ -13842,13 +13844,13 @@
     </row>
     <row r="20" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="15"/>
       <c r="B21" s="16" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="C21" s="17"/>
       <c r="D21" s="18"/>
@@ -13856,39 +13858,39 @@
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
       <c r="H21" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I21" s="17"/>
       <c r="J21" s="18"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F22" s="23"/>
       <c r="G22" s="23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H22" s="20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I22" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J22" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13900,7 +13902,7 @@
       <c r="D23" s="26"/>
       <c r="E23" s="27"/>
       <c r="F23" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G23" s="27"/>
       <c r="H23" s="24"/>
@@ -13916,7 +13918,7 @@
       <c r="D24" s="26"/>
       <c r="E24" s="27"/>
       <c r="F24" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G24" s="27"/>
       <c r="H24" s="24"/>
@@ -13932,7 +13934,7 @@
       <c r="D25" s="26"/>
       <c r="E25" s="27"/>
       <c r="F25" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G25" s="27"/>
       <c r="H25" s="24"/>
@@ -13948,7 +13950,7 @@
       <c r="D26" s="26"/>
       <c r="E26" s="28"/>
       <c r="F26" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G26" s="28"/>
       <c r="H26" s="24"/>
@@ -13965,7 +13967,7 @@
       <c r="D27" s="30"/>
       <c r="E27" s="32"/>
       <c r="F27" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G27" s="32"/>
       <c r="H27" s="30"/>
@@ -13983,7 +13985,7 @@
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="15"/>
       <c r="B29" s="16" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="C29" s="17"/>
       <c r="D29" s="18"/>
@@ -13991,39 +13993,39 @@
       <c r="F29" s="18"/>
       <c r="G29" s="18"/>
       <c r="H29" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I29" s="17"/>
       <c r="J29" s="18"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E30" s="23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F30" s="23"/>
       <c r="G30" s="23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H30" s="20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I30" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J30" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14035,7 +14037,7 @@
       <c r="D31" s="26"/>
       <c r="E31" s="27"/>
       <c r="F31" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G31" s="27"/>
       <c r="H31" s="24"/>
@@ -14051,7 +14053,7 @@
       <c r="D32" s="26"/>
       <c r="E32" s="27"/>
       <c r="F32" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G32" s="27"/>
       <c r="H32" s="24"/>
@@ -14067,7 +14069,7 @@
       <c r="D33" s="26"/>
       <c r="E33" s="27"/>
       <c r="F33" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G33" s="27"/>
       <c r="H33" s="24"/>
@@ -14083,7 +14085,7 @@
       <c r="D34" s="26"/>
       <c r="E34" s="28"/>
       <c r="F34" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G34" s="28"/>
       <c r="H34" s="24"/>
@@ -14100,7 +14102,7 @@
       <c r="D35" s="30"/>
       <c r="E35" s="32"/>
       <c r="F35" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G35" s="32"/>
       <c r="H35" s="30"/>
@@ -14143,7 +14145,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="5.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="7.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="30.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="6.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="6.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="8.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="10.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="8.53"/>
@@ -14165,18 +14167,20 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="15"/>
-      <c r="B3" s="16"/>
+      <c r="B3" s="16" t="s">
+        <v>22</v>
+      </c>
       <c r="C3" s="17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" s="18"/>
       <c r="E3" s="18"/>
       <c r="F3" s="18"/>
       <c r="G3" s="18"/>
       <c r="H3" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I3" s="17" t="s">
         <v>102</v>
@@ -14185,32 +14189,32 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F4" s="23"/>
       <c r="G4" s="23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H4" s="20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J4" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14221,7 +14225,7 @@
         <v>20621</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D5" s="26" t="n">
         <v>2299</v>
@@ -14251,7 +14255,7 @@
         <v>14354</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D6" s="26" t="n">
         <v>2283</v>
@@ -14311,7 +14315,7 @@
         <v>27413</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D8" s="26" t="n">
         <v>2065</v>
@@ -14341,7 +14345,7 @@
         <v>353</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D9" s="26" t="n">
         <v>1885</v>
@@ -14350,7 +14354,7 @@
         <v>0.5</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G9" s="27" t="n">
         <v>0.5</v>
@@ -14373,7 +14377,7 @@
         <v>76317</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D10" s="26" t="n">
         <v>1754</v>
@@ -14382,7 +14386,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G10" s="28" t="n">
         <v>1</v>
@@ -14409,7 +14413,7 @@
         <v>3</v>
       </c>
       <c r="F11" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G11" s="32" t="n">
         <v>3</v>
@@ -14423,21 +14427,23 @@
     </row>
     <row r="12" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="15"/>
-      <c r="B13" s="16"/>
+      <c r="B13" s="16" t="s">
+        <v>22</v>
+      </c>
       <c r="C13" s="17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D13" s="18"/>
       <c r="E13" s="18"/>
       <c r="F13" s="18"/>
       <c r="G13" s="18"/>
       <c r="H13" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I13" s="17" t="s">
         <v>109</v>
@@ -14446,30 +14452,30 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F14" s="23"/>
       <c r="G14" s="23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H14" s="20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I14" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J14" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14480,7 +14486,7 @@
         <v>31526</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D15" s="26" t="n">
         <v>1879</v>
@@ -14489,7 +14495,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G15" s="27" t="n">
         <v>0</v>
@@ -14512,7 +14518,7 @@
         <v>655</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D16" s="26" t="n">
         <v>1824</v>
@@ -14521,7 +14527,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G16" s="27" t="n">
         <v>1</v>
@@ -14553,7 +14559,7 @@
         <v>1</v>
       </c>
       <c r="F17" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G17" s="27" t="n">
         <v>0</v>
@@ -14576,7 +14582,7 @@
         <v>26816</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D18" s="26" t="n">
         <v>1752</v>
@@ -14585,7 +14591,7 @@
         <v>1</v>
       </c>
       <c r="F18" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G18" s="28" t="n">
         <v>0</v>
@@ -14612,7 +14618,7 @@
         <v>3</v>
       </c>
       <c r="F19" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G19" s="32" t="n">
         <v>1</v>
@@ -14626,13 +14632,13 @@
     </row>
     <row r="20" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="15"/>
       <c r="B21" s="16" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="C21" s="17"/>
       <c r="D21" s="18"/>
@@ -14640,39 +14646,39 @@
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
       <c r="H21" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I21" s="17"/>
       <c r="J21" s="18"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F22" s="23"/>
       <c r="G22" s="23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H22" s="20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I22" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J22" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14684,7 +14690,7 @@
       <c r="D23" s="26"/>
       <c r="E23" s="27"/>
       <c r="F23" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G23" s="27"/>
       <c r="H23" s="24"/>
@@ -14700,7 +14706,7 @@
       <c r="D24" s="26"/>
       <c r="E24" s="27"/>
       <c r="F24" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G24" s="27"/>
       <c r="H24" s="24"/>
@@ -14716,7 +14722,7 @@
       <c r="D25" s="26"/>
       <c r="E25" s="27"/>
       <c r="F25" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G25" s="27"/>
       <c r="H25" s="24"/>
@@ -14732,7 +14738,7 @@
       <c r="D26" s="26"/>
       <c r="E26" s="28"/>
       <c r="F26" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G26" s="28"/>
       <c r="H26" s="24"/>
@@ -14749,7 +14755,7 @@
       <c r="D27" s="30"/>
       <c r="E27" s="32"/>
       <c r="F27" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G27" s="32"/>
       <c r="H27" s="30"/>
@@ -14767,7 +14773,7 @@
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="15"/>
       <c r="B29" s="16" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="C29" s="17"/>
       <c r="D29" s="18"/>
@@ -14775,39 +14781,39 @@
       <c r="F29" s="18"/>
       <c r="G29" s="18"/>
       <c r="H29" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I29" s="17"/>
       <c r="J29" s="18"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E30" s="23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F30" s="23"/>
       <c r="G30" s="23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H30" s="20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I30" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J30" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14819,7 +14825,7 @@
       <c r="D31" s="26"/>
       <c r="E31" s="27"/>
       <c r="F31" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G31" s="27"/>
       <c r="H31" s="24"/>
@@ -14835,7 +14841,7 @@
       <c r="D32" s="26"/>
       <c r="E32" s="27"/>
       <c r="F32" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G32" s="27"/>
       <c r="H32" s="24"/>
@@ -14851,7 +14857,7 @@
       <c r="D33" s="26"/>
       <c r="E33" s="27"/>
       <c r="F33" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G33" s="27"/>
       <c r="H33" s="24"/>
@@ -14867,7 +14873,7 @@
       <c r="D34" s="26"/>
       <c r="E34" s="28"/>
       <c r="F34" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G34" s="28"/>
       <c r="H34" s="24"/>
@@ -14884,7 +14890,7 @@
       <c r="D35" s="30"/>
       <c r="E35" s="32"/>
       <c r="F35" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G35" s="32"/>
       <c r="H35" s="30"/>
@@ -14927,7 +14933,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="5.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="7.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="30.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="6.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="6.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="8.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="10.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="8.53"/>
@@ -14949,10 +14955,10 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="15"/>
       <c r="B3" s="16" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>115</v>
@@ -14961,40 +14967,42 @@
       <c r="E3" s="18"/>
       <c r="F3" s="18"/>
       <c r="G3" s="18"/>
-      <c r="H3" s="16"/>
+      <c r="H3" s="16" t="s">
+        <v>24</v>
+      </c>
       <c r="I3" s="17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J3" s="18"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F4" s="23"/>
       <c r="G4" s="23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H4" s="20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J4" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15014,7 +15022,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G5" s="27" t="n">
         <v>1</v>
@@ -15023,7 +15031,7 @@
         <v>20621</v>
       </c>
       <c r="I5" s="25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J5" s="26" t="n">
         <v>2299</v>
@@ -15046,7 +15054,7 @@
         <v>118</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G6" s="27" t="s">
         <v>119</v>
@@ -15055,7 +15063,7 @@
         <v>14354</v>
       </c>
       <c r="I6" s="25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J6" s="26" t="n">
         <v>2283</v>
@@ -15081,7 +15089,7 @@
         <v>0.5</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G7" s="27" t="n">
         <v>0.5</v>
@@ -15116,7 +15124,7 @@
         <v>0.5</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G8" s="27" t="n">
         <v>0.5</v>
@@ -15125,7 +15133,7 @@
         <v>27413</v>
       </c>
       <c r="I8" s="25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J8" s="26" t="n">
         <v>2065</v>
@@ -15151,7 +15159,7 @@
         <v>0.5</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G9" s="27" t="n">
         <v>0.5</v>
@@ -15160,7 +15168,7 @@
         <v>353</v>
       </c>
       <c r="I9" s="25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J9" s="26" t="n">
         <v>1885</v>
@@ -15183,7 +15191,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G10" s="28" t="n">
         <v>0</v>
@@ -15192,7 +15200,7 @@
         <v>76317</v>
       </c>
       <c r="I10" s="25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J10" s="26" t="n">
         <v>1754</v>
@@ -15210,7 +15218,7 @@
         <v>3.5</v>
       </c>
       <c r="F11" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G11" s="32" t="n">
         <v>2.5</v>
@@ -15224,13 +15232,13 @@
     </row>
     <row r="12" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="15"/>
       <c r="B13" s="16" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="C13" s="17" t="s">
         <v>127</v>
@@ -15239,37 +15247,39 @@
       <c r="E13" s="18"/>
       <c r="F13" s="18"/>
       <c r="G13" s="18"/>
-      <c r="H13" s="16"/>
+      <c r="H13" s="16" t="s">
+        <v>24</v>
+      </c>
       <c r="I13" s="17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J13" s="18"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F14" s="23"/>
       <c r="G14" s="23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H14" s="20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I14" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J14" s="22"/>
     </row>
@@ -15290,7 +15300,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G15" s="27" t="n">
         <v>1</v>
@@ -15299,7 +15309,7 @@
         <v>31526</v>
       </c>
       <c r="I15" s="25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J15" s="26" t="n">
         <v>1879</v>
@@ -15322,7 +15332,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G16" s="27" t="n">
         <v>1</v>
@@ -15354,7 +15364,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G17" s="27" t="n">
         <v>1</v>
@@ -15363,7 +15373,7 @@
         <v>26816</v>
       </c>
       <c r="I17" s="25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J17" s="26" t="n">
         <v>1752</v>
@@ -15386,7 +15396,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G18" s="28" t="n">
         <v>1</v>
@@ -15413,7 +15423,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G19" s="32" t="n">
         <v>4</v>
@@ -15427,13 +15437,13 @@
     </row>
     <row r="20" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="15"/>
       <c r="B21" s="16" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="C21" s="17"/>
       <c r="D21" s="18"/>
@@ -15441,39 +15451,39 @@
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
       <c r="H21" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I21" s="17"/>
       <c r="J21" s="18"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F22" s="23"/>
       <c r="G22" s="23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H22" s="20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I22" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J22" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15485,7 +15495,7 @@
       <c r="D23" s="26"/>
       <c r="E23" s="27"/>
       <c r="F23" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G23" s="27"/>
       <c r="H23" s="24"/>
@@ -15501,7 +15511,7 @@
       <c r="D24" s="26"/>
       <c r="E24" s="27"/>
       <c r="F24" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G24" s="27"/>
       <c r="H24" s="24"/>
@@ -15517,7 +15527,7 @@
       <c r="D25" s="26"/>
       <c r="E25" s="27"/>
       <c r="F25" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G25" s="27"/>
       <c r="H25" s="24"/>
@@ -15533,7 +15543,7 @@
       <c r="D26" s="26"/>
       <c r="E26" s="28"/>
       <c r="F26" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G26" s="28"/>
       <c r="H26" s="24"/>
@@ -15550,7 +15560,7 @@
       <c r="D27" s="30"/>
       <c r="E27" s="32"/>
       <c r="F27" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G27" s="32"/>
       <c r="H27" s="30"/>
@@ -15568,7 +15578,7 @@
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="15"/>
       <c r="B29" s="16" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="C29" s="17"/>
       <c r="D29" s="18"/>
@@ -15576,39 +15586,39 @@
       <c r="F29" s="18"/>
       <c r="G29" s="18"/>
       <c r="H29" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I29" s="17"/>
       <c r="J29" s="18"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E30" s="23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F30" s="23"/>
       <c r="G30" s="23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H30" s="20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I30" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J30" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15620,7 +15630,7 @@
       <c r="D31" s="26"/>
       <c r="E31" s="27"/>
       <c r="F31" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G31" s="27"/>
       <c r="H31" s="24"/>
@@ -15636,7 +15646,7 @@
       <c r="D32" s="26"/>
       <c r="E32" s="27"/>
       <c r="F32" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G32" s="27"/>
       <c r="H32" s="24"/>
@@ -15652,7 +15662,7 @@
       <c r="D33" s="26"/>
       <c r="E33" s="27"/>
       <c r="F33" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G33" s="27"/>
       <c r="H33" s="24"/>
@@ -15668,7 +15678,7 @@
       <c r="D34" s="26"/>
       <c r="E34" s="28"/>
       <c r="F34" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G34" s="28"/>
       <c r="H34" s="24"/>
@@ -15685,7 +15695,7 @@
       <c r="D35" s="30"/>
       <c r="E35" s="32"/>
       <c r="F35" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G35" s="32"/>
       <c r="H35" s="30"/>
@@ -15728,7 +15738,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="5.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="7.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="30.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="6.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="6.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="8.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="10.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="8.53"/>
@@ -15750,18 +15760,20 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="15"/>
-      <c r="B3" s="16"/>
+      <c r="B3" s="16" t="s">
+        <v>22</v>
+      </c>
       <c r="C3" s="17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" s="18"/>
       <c r="E3" s="18"/>
       <c r="F3" s="18"/>
       <c r="G3" s="18"/>
       <c r="H3" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I3" s="17" t="s">
         <v>134</v>
@@ -15770,32 +15782,32 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F4" s="23"/>
       <c r="G4" s="23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H4" s="20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J4" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15806,7 +15818,7 @@
         <v>20621</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D5" s="26" t="n">
         <v>2299</v>
@@ -15815,7 +15827,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G5" s="27" t="n">
         <v>0</v>
@@ -15838,7 +15850,7 @@
         <v>14354</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D6" s="26" t="n">
         <v>2283</v>
@@ -15847,7 +15859,7 @@
         <v>119</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G6" s="27" t="s">
         <v>118</v>
@@ -15873,7 +15885,7 @@
         <v>27413</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D7" s="26" t="n">
         <v>2065</v>
@@ -15882,7 +15894,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G7" s="27" t="n">
         <v>1</v>
@@ -15905,7 +15917,7 @@
         <v>353</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D8" s="26" t="n">
         <v>1885</v>
@@ -15914,7 +15926,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G8" s="27" t="n">
         <v>1</v>
@@ -15946,7 +15958,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G9" s="27" t="n">
         <v>1</v>
@@ -15969,7 +15981,7 @@
         <v>76317</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D10" s="26" t="n">
         <v>1754</v>
@@ -15978,7 +15990,7 @@
         <v>0.5</v>
       </c>
       <c r="F10" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G10" s="28" t="n">
         <v>0.5</v>
@@ -16005,7 +16017,7 @@
         <v>1.5</v>
       </c>
       <c r="F11" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G11" s="32" t="n">
         <v>4.5</v>
@@ -16019,20 +16031,24 @@
     </row>
     <row r="12" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="15"/>
-      <c r="B13" s="16"/>
+      <c r="B13" s="16" t="s">
+        <v>22</v>
+      </c>
       <c r="C13" s="17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D13" s="18"/>
       <c r="E13" s="18"/>
       <c r="F13" s="18"/>
       <c r="G13" s="18"/>
-      <c r="H13" s="16"/>
+      <c r="H13" s="16" t="s">
+        <v>24</v>
+      </c>
       <c r="I13" s="17" t="s">
         <v>142</v>
       </c>
@@ -16040,27 +16056,27 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F14" s="23"/>
       <c r="G14" s="23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H14" s="20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I14" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J14" s="22"/>
     </row>
@@ -16072,7 +16088,7 @@
         <v>31526</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D15" s="26" t="n">
         <v>1879</v>
@@ -16081,7 +16097,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G15" s="27" t="n">
         <v>1</v>
@@ -16113,7 +16129,7 @@
         <v>0.5</v>
       </c>
       <c r="F16" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G16" s="27" t="n">
         <v>0.5</v>
@@ -16136,7 +16152,7 @@
         <v>26816</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" s="26" t="n">
         <v>1752</v>
@@ -16145,7 +16161,7 @@
         <v>0.5</v>
       </c>
       <c r="F17" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G17" s="27" t="n">
         <v>0.5</v>
@@ -16177,7 +16193,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G18" s="28" t="n">
         <v>1</v>
@@ -16204,7 +16220,7 @@
         <v>1</v>
       </c>
       <c r="F19" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G19" s="32" t="n">
         <v>3</v>
@@ -16218,13 +16234,13 @@
     </row>
     <row r="20" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="15"/>
       <c r="B21" s="16" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="C21" s="17"/>
       <c r="D21" s="18"/>
@@ -16232,39 +16248,39 @@
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
       <c r="H21" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I21" s="17"/>
       <c r="J21" s="18"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F22" s="23"/>
       <c r="G22" s="23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H22" s="20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I22" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J22" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16276,7 +16292,7 @@
       <c r="D23" s="26"/>
       <c r="E23" s="27"/>
       <c r="F23" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G23" s="27"/>
       <c r="H23" s="24"/>
@@ -16292,7 +16308,7 @@
       <c r="D24" s="26"/>
       <c r="E24" s="27"/>
       <c r="F24" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G24" s="27"/>
       <c r="H24" s="24"/>
@@ -16308,7 +16324,7 @@
       <c r="D25" s="26"/>
       <c r="E25" s="27"/>
       <c r="F25" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G25" s="27"/>
       <c r="H25" s="24"/>
@@ -16324,7 +16340,7 @@
       <c r="D26" s="26"/>
       <c r="E26" s="28"/>
       <c r="F26" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G26" s="28"/>
       <c r="H26" s="24"/>
@@ -16341,7 +16357,7 @@
       <c r="D27" s="30"/>
       <c r="E27" s="32"/>
       <c r="F27" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G27" s="32"/>
       <c r="H27" s="30"/>
@@ -16359,7 +16375,7 @@
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="15"/>
       <c r="B29" s="16" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="C29" s="17"/>
       <c r="D29" s="18"/>
@@ -16367,39 +16383,39 @@
       <c r="F29" s="18"/>
       <c r="G29" s="18"/>
       <c r="H29" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I29" s="17"/>
       <c r="J29" s="18"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E30" s="23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F30" s="23"/>
       <c r="G30" s="23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H30" s="20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I30" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J30" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16411,7 +16427,7 @@
       <c r="D31" s="26"/>
       <c r="E31" s="27"/>
       <c r="F31" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G31" s="27"/>
       <c r="H31" s="24"/>
@@ -16427,7 +16443,7 @@
       <c r="D32" s="26"/>
       <c r="E32" s="27"/>
       <c r="F32" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G32" s="27"/>
       <c r="H32" s="24"/>
@@ -16443,7 +16459,7 @@
       <c r="D33" s="26"/>
       <c r="E33" s="27"/>
       <c r="F33" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G33" s="27"/>
       <c r="H33" s="24"/>
@@ -16459,7 +16475,7 @@
       <c r="D34" s="26"/>
       <c r="E34" s="28"/>
       <c r="F34" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G34" s="28"/>
       <c r="H34" s="24"/>
@@ -16476,7 +16492,7 @@
       <c r="D35" s="30"/>
       <c r="E35" s="32"/>
       <c r="F35" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G35" s="32"/>
       <c r="H35" s="30"/>
@@ -16519,7 +16535,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="5.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="7.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="30.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="6.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="6.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="8.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="10.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="8.53"/>
@@ -16541,10 +16557,10 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="15"/>
       <c r="B3" s="16" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>149</v>
@@ -16553,40 +16569,42 @@
       <c r="E3" s="18"/>
       <c r="F3" s="18"/>
       <c r="G3" s="18"/>
-      <c r="H3" s="16"/>
+      <c r="H3" s="16" t="s">
+        <v>24</v>
+      </c>
       <c r="I3" s="17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J3" s="18"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F4" s="23"/>
       <c r="G4" s="23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H4" s="20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J4" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16606,7 +16624,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G5" s="27" t="n">
         <v>1</v>
@@ -16615,7 +16633,7 @@
         <v>20621</v>
       </c>
       <c r="I5" s="25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J5" s="26" t="n">
         <v>2299</v>
@@ -16638,7 +16656,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G6" s="27" t="n">
         <v>1</v>
@@ -16647,7 +16665,7 @@
         <v>14354</v>
       </c>
       <c r="I6" s="25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J6" s="26" t="n">
         <v>2283</v>
@@ -16670,7 +16688,7 @@
         <v>0.5</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G7" s="27" t="n">
         <v>0.5</v>
@@ -16679,7 +16697,7 @@
         <v>27413</v>
       </c>
       <c r="I7" s="25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J7" s="26" t="n">
         <v>2065</v>
@@ -16702,7 +16720,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G8" s="27" t="n">
         <v>0</v>
@@ -16711,7 +16729,7 @@
         <v>353</v>
       </c>
       <c r="I8" s="25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J8" s="26" t="n">
         <v>1885</v>
@@ -16734,7 +16752,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G9" s="27" t="n">
         <v>0</v>
@@ -16766,7 +16784,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G10" s="28" t="n">
         <v>1</v>
@@ -16793,7 +16811,7 @@
         <v>2.5</v>
       </c>
       <c r="F11" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G11" s="32" t="n">
         <v>3.5</v>
@@ -16817,13 +16835,13 @@
     </row>
     <row r="12" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="15"/>
       <c r="B13" s="16" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="C13" s="17" t="s">
         <v>157</v>
@@ -16832,37 +16850,39 @@
       <c r="E13" s="18"/>
       <c r="F13" s="18"/>
       <c r="G13" s="18"/>
-      <c r="H13" s="16"/>
+      <c r="H13" s="16" t="s">
+        <v>24</v>
+      </c>
       <c r="I13" s="17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J13" s="18"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F14" s="23"/>
       <c r="G14" s="23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H14" s="20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I14" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J14" s="22"/>
     </row>
@@ -16883,7 +16903,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G15" s="27" t="n">
         <v>1</v>
@@ -16892,7 +16912,7 @@
         <v>31526</v>
       </c>
       <c r="I15" s="25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J15" s="26" t="n">
         <v>1879</v>
@@ -16915,7 +16935,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G16" s="27" t="n">
         <v>0</v>
@@ -16924,7 +16944,7 @@
         <v>48097</v>
       </c>
       <c r="I16" s="25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J16" s="26" t="n">
         <v>1811</v>
@@ -16947,7 +16967,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G17" s="27" t="n">
         <v>1</v>
@@ -16956,7 +16976,7 @@
         <v>76317</v>
       </c>
       <c r="I17" s="25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J17" s="26" t="n">
         <v>1754</v>
@@ -16979,7 +16999,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G18" s="28" t="n">
         <v>1</v>
@@ -16988,7 +17008,7 @@
         <v>26816</v>
       </c>
       <c r="I18" s="25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J18" s="26" t="n">
         <v>1752</v>
@@ -17006,7 +17026,7 @@
         <v>1</v>
       </c>
       <c r="F19" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G19" s="32" t="n">
         <v>3</v>
@@ -17030,13 +17050,13 @@
     </row>
     <row r="20" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="15"/>
       <c r="B21" s="16" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="C21" s="17"/>
       <c r="D21" s="18"/>
@@ -17044,39 +17064,39 @@
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
       <c r="H21" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I21" s="17"/>
       <c r="J21" s="18"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F22" s="23"/>
       <c r="G22" s="23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H22" s="20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I22" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J22" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17088,7 +17108,7 @@
       <c r="D23" s="26"/>
       <c r="E23" s="27"/>
       <c r="F23" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G23" s="27"/>
       <c r="H23" s="24"/>
@@ -17104,7 +17124,7 @@
       <c r="D24" s="26"/>
       <c r="E24" s="27"/>
       <c r="F24" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G24" s="27"/>
       <c r="H24" s="24"/>
@@ -17120,7 +17140,7 @@
       <c r="D25" s="26"/>
       <c r="E25" s="27"/>
       <c r="F25" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G25" s="27"/>
       <c r="H25" s="24"/>
@@ -17136,7 +17156,7 @@
       <c r="D26" s="26"/>
       <c r="E26" s="28"/>
       <c r="F26" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G26" s="28"/>
       <c r="H26" s="24"/>
@@ -17153,7 +17173,7 @@
       <c r="D27" s="30"/>
       <c r="E27" s="32"/>
       <c r="F27" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G27" s="32"/>
       <c r="H27" s="30"/>
@@ -17171,7 +17191,7 @@
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="15"/>
       <c r="B29" s="16" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="C29" s="17"/>
       <c r="D29" s="18"/>
@@ -17179,39 +17199,39 @@
       <c r="F29" s="18"/>
       <c r="G29" s="18"/>
       <c r="H29" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I29" s="17"/>
       <c r="J29" s="18"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E30" s="23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F30" s="23"/>
       <c r="G30" s="23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H30" s="20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I30" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J30" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17223,7 +17243,7 @@
       <c r="D31" s="26"/>
       <c r="E31" s="27"/>
       <c r="F31" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G31" s="27"/>
       <c r="H31" s="24"/>
@@ -17239,7 +17259,7 @@
       <c r="D32" s="26"/>
       <c r="E32" s="27"/>
       <c r="F32" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G32" s="27"/>
       <c r="H32" s="24"/>
@@ -17255,7 +17275,7 @@
       <c r="D33" s="26"/>
       <c r="E33" s="27"/>
       <c r="F33" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G33" s="27"/>
       <c r="H33" s="24"/>
@@ -17271,7 +17291,7 @@
       <c r="D34" s="26"/>
       <c r="E34" s="28"/>
       <c r="F34" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G34" s="28"/>
       <c r="H34" s="24"/>
@@ -17288,7 +17308,7 @@
       <c r="D35" s="30"/>
       <c r="E35" s="32"/>
       <c r="F35" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G35" s="32"/>
       <c r="H35" s="30"/>
